--- a/MNPR.xlsx
+++ b/MNPR.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BFF0EA-10E1-4FAC-A94F-9DE6836F8092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F4D818-BA4D-452F-81B3-6C1F1E95E526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32100" yWindow="3165" windowWidth="20625" windowHeight="16425" xr2:uid="{E0F9B4FF-09D5-4794-A32F-9014F757C863}"/>
+    <workbookView xWindow="39270" yWindow="5890" windowWidth="22990" windowHeight="14710" activeTab="1" xr2:uid="{E0F9B4FF-09D5-4794-A32F-9014F757C863}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Price</t>
   </si>
@@ -56,17 +57,66 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q224</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ALXN1840</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>tetrathiomolybdate</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Wilson's</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Filing NDA Early 2026</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>NPV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -88,18 +138,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,55 +488,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F7903C-9214-44AA-9B09-BBAEABCBDE8F}">
-  <dimension ref="K2:M7"/>
+  <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>17.601827</v>
+        <v>6.1689999999999996</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>528.05480999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+        <v>616.9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>6.119931+0.99884</f>
-        <v>7.1187710000000006</v>
+        <v>53.3</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -490,19 +570,273 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>520.93603899999994</v>
+        <v>563.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310A4DB8-8418-4A63-8A7F-2B8D466B7D64}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2025</v>
+      </c>
+      <c r="D2">
+        <f>+C2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="E2">
+        <f>+D2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="F2">
+        <f>+E2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="G2">
+        <f>+F2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="H2">
+        <f>+G2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="I2">
+        <f>+H2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="J2">
+        <f>+I2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="K2">
+        <f>+J2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="L2">
+        <f>+K2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="M2">
+        <f>+L2+1</f>
+        <v>2035</v>
+      </c>
+      <c r="N2">
+        <f>+M2+1</f>
+        <v>2036</v>
+      </c>
+      <c r="O2">
+        <f>+N2+1</f>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2">
+        <v>300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>350</v>
+      </c>
+      <c r="H3" s="2">
+        <v>400</v>
+      </c>
+      <c r="I3" s="2">
+        <v>450</v>
+      </c>
+      <c r="J3" s="2">
+        <v>500</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.15</v>
+      </c>
+      <c r="D4">
+        <v>0.15</v>
+      </c>
+      <c r="E4">
+        <v>0.15</v>
+      </c>
+      <c r="F4">
+        <v>0.15</v>
+      </c>
+      <c r="G4">
+        <v>0.15</v>
+      </c>
+      <c r="H4">
+        <v>0.15</v>
+      </c>
+      <c r="I4">
+        <v>0.15</v>
+      </c>
+      <c r="J4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <f>+C3*C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:O5" si="0">+D3*D4</f>
+        <v>3.75</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <f>+C5-C6</f>
+        <v>-30</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:J7" si="1">+D5-D6</f>
+        <v>-26.25</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <f>NPV(10%,C7:J7)</f>
+        <v>26.784607888487667</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{88377896-B666-4270-B152-CD618C1BC448}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>